--- a/브랜딩_내사경.xlsx
+++ b/브랜딩_내사경.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="465" windowWidth="27150" windowHeight="10410" activeTab="2"/>
+    <workbookView xWindow="645" yWindow="465" windowWidth="27150" windowHeight="10410" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Extensions" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'수집기록물 목록'!$A$1:$T$179</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$T$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'시청각기록물 목록'!$A$1:$T$178</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -6872,7 +6872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="G134" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
@@ -14282,11 +14282,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R180"/>
+  <dimension ref="A1:R179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -14365,266 +14363,1612 @@
       </c>
     </row>
     <row r="2" spans="1:18" collapsed="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="P2" s="18"/>
+      <c r="A2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="20">
+        <v>42997</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:18" collapsed="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="P3" s="18"/>
+      <c r="A3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="20">
+        <v>43021</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>589</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="4" spans="1:18" collapsed="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="P4" s="18"/>
+      <c r="A4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="20">
+        <v>43021</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="1:18" collapsed="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="P5" s="18"/>
+      <c r="A5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="20">
+        <v>43021</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>704</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="1:18" collapsed="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="P6" s="18"/>
+      <c r="A6" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="20">
+        <v>43038</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="7" spans="1:18" collapsed="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="P7" s="18"/>
+      <c r="A7" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="20">
+        <v>43052</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" spans="1:18" collapsed="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="P8" s="18"/>
+      <c r="A8" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="20">
+        <v>43052</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="9" spans="1:18" collapsed="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="P9" s="18"/>
+      <c r="A9" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="20">
+        <v>43052</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="10" spans="1:18" collapsed="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="P10" s="18"/>
+      <c r="A10" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="20">
+        <v>43052</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="11" spans="1:18" collapsed="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="P11" s="18"/>
+      <c r="A11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="20">
+        <v>43062</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="12" spans="1:18" collapsed="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="P12" s="18"/>
+      <c r="A12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="20">
+        <v>43063</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="13" spans="1:18" collapsed="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="P13" s="18"/>
+      <c r="A13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="20">
+        <v>43063</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" spans="1:18" collapsed="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="P14" s="18"/>
+      <c r="A14" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" s="20">
+        <v>43076</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:18" collapsed="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="P15" s="18"/>
+      <c r="A15" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" s="20">
+        <v>43076</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="1:18" collapsed="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="P16" s="18"/>
-    </row>
-    <row r="17" spans="1:16" collapsed="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="P17" s="18"/>
-    </row>
-    <row r="18" spans="1:16" collapsed="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="P18" s="18"/>
-    </row>
-    <row r="19" spans="1:16" collapsed="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="P19" s="18"/>
-    </row>
-    <row r="20" spans="1:16" collapsed="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="P20" s="18"/>
-    </row>
-    <row r="21" spans="1:16" collapsed="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="1:16" collapsed="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="P22" s="18"/>
-    </row>
-    <row r="23" spans="1:16" collapsed="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="P23" s="18"/>
-    </row>
-    <row r="24" spans="1:16" collapsed="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="P24" s="18"/>
-    </row>
-    <row r="25" spans="1:16" collapsed="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="P25" s="18"/>
-    </row>
-    <row r="26" spans="1:16" collapsed="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="P26" s="18"/>
-    </row>
-    <row r="27" spans="1:16" collapsed="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="P27" s="18"/>
-    </row>
-    <row r="28" spans="1:16" collapsed="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="P28" s="18"/>
-    </row>
-    <row r="29" spans="1:16" collapsed="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="P29" s="18"/>
-    </row>
-    <row r="30" spans="1:16" collapsed="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="P30" s="18"/>
-    </row>
-    <row r="31" spans="1:16" collapsed="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="P31" s="18"/>
-    </row>
-    <row r="32" spans="1:16" collapsed="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="P32" s="18"/>
+      <c r="A16" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="20">
+        <v>43076</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" collapsed="1">
+      <c r="A17" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="20">
+        <v>43076</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>737</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" collapsed="1">
+      <c r="A18" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="20">
+        <v>43076</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" collapsed="1">
+      <c r="A19" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B19" s="20">
+        <v>43076</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" collapsed="1">
+      <c r="A20" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>601</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" collapsed="1">
+      <c r="A21" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B21" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" collapsed="1">
+      <c r="A22" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B22" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P22" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" collapsed="1">
+      <c r="A23" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" collapsed="1">
+      <c r="A24" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B24" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" collapsed="1">
+      <c r="A25" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B25" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" collapsed="1">
+      <c r="A26" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B26" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" collapsed="1">
+      <c r="A27" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B27" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" collapsed="1">
+      <c r="A28" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B28" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P28" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" collapsed="1">
+      <c r="A29" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B29" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P29" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" collapsed="1">
+      <c r="A30" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B30" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" collapsed="1">
+      <c r="A31" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B31" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P31" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" collapsed="1">
+      <c r="A32" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B32" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="33" spans="1:18" collapsed="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="P33" s="18"/>
+      <c r="A33" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B33" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="34" spans="1:18" collapsed="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="P34" s="18"/>
+      <c r="A34" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B34" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O34" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q34" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="35" spans="1:18" collapsed="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="P35" s="18"/>
+      <c r="A35" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B35" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O35" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="36" spans="1:18" collapsed="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="P36" s="18"/>
+      <c r="A36" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B36" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O36" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q36" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="37" spans="1:18" collapsed="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="P37" s="18"/>
+      <c r="A37" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B37" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O37" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q37" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="38" spans="1:18" collapsed="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="P38" s="18"/>
+      <c r="A38" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B38" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N38" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O38" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q38" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="39" spans="1:18" collapsed="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="P39" s="18"/>
+      <c r="A39" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B39" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N39" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P39" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q39" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="40" spans="1:18" collapsed="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="P40" s="18"/>
+      <c r="A40" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N40" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O40" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P40" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q40" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="41" spans="1:18" collapsed="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="P41" s="18"/>
+      <c r="A41" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B41" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O41" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P41" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q41" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="42" spans="1:18" collapsed="1">
       <c r="A42" s="12" t="s">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="B42" s="20">
-        <v>42997</v>
+        <v>43082</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>682</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>428</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="E42" s="22"/>
       <c r="F42" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>638</v>
@@ -14636,141 +15980,754 @@
         <v>323</v>
       </c>
       <c r="P42" s="18" t="s">
-        <v>318</v>
+        <v>321</v>
+      </c>
+      <c r="Q42" s="17" t="s">
+        <v>603</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:18" collapsed="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="P43" s="18"/>
+      <c r="A43" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B43" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N43" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O43" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P43" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q43" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="44" spans="1:18" collapsed="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="P44" s="18"/>
+      <c r="A44" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B44" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O44" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="45" spans="1:18" collapsed="1">
-      <c r="A45" s="12"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="P45" s="18"/>
+      <c r="A45" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B45" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>765</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N45" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O45" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q45" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="46" spans="1:18" collapsed="1">
-      <c r="A46" s="12"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="P46" s="18"/>
+      <c r="A46" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B46" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N46" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P46" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q46" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="47" spans="1:18" collapsed="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="P47" s="18"/>
+      <c r="A47" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B47" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>767</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N47" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O47" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P47" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q47" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="48" spans="1:18" collapsed="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="P48" s="18"/>
+      <c r="A48" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B48" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N48" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O48" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="49" spans="1:18" collapsed="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="P49" s="18"/>
+      <c r="A49" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B49" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N49" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O49" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P49" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q49" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="50" spans="1:18" collapsed="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="P50" s="18"/>
+      <c r="A50" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B50" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N50" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P50" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q50" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="51" spans="1:18" collapsed="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="P51" s="18"/>
+      <c r="A51" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N51" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O51" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P51" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q51" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="52" spans="1:18" collapsed="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="P52" s="18"/>
+      <c r="A52" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B52" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N52" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O52" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P52" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q52" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="53" spans="1:18" collapsed="1">
-      <c r="A53" s="12"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="P53" s="18"/>
+      <c r="A53" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B53" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H53" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N53" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O53" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P53" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q53" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="54" spans="1:18" collapsed="1">
-      <c r="A54" s="12"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="P54" s="18"/>
+      <c r="A54" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B54" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O54" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P54" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q54" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="55" spans="1:18" collapsed="1">
-      <c r="A55" s="12"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="P55" s="18"/>
+      <c r="A55" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B55" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O55" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P55" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q55" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="56" spans="1:18" collapsed="1">
-      <c r="A56" s="12"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="P56" s="18"/>
+      <c r="A56" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B56" s="20">
+        <v>43082</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O56" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P56" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q56" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="57" spans="1:18" collapsed="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="P57" s="18"/>
+      <c r="A57" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B57" s="20">
+        <v>43083</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P57" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q57" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="R57" s="13" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="58" spans="1:18" collapsed="1">
-      <c r="A58" s="12"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="P58" s="18"/>
+      <c r="A58" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B58" s="20">
+        <v>43087</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N58" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O58" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P58" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q58" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="R58" s="13" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="59" spans="1:18" collapsed="1">
-      <c r="A59" s="12"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="P59" s="18"/>
+      <c r="A59" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B59" s="20">
+        <v>43087</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>779</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N59" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P59" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q59" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="R59" s="13" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="60" spans="1:18" collapsed="1">
-      <c r="A60" s="12"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="P60" s="18"/>
+      <c r="A60" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B60" s="20">
+        <v>43087</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N60" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O60" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P60" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q60" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="R60" s="13" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="61" spans="1:18" collapsed="1">
       <c r="A61" s="12" t="s">
-        <v>119</v>
+        <v>382</v>
       </c>
       <c r="B61" s="20">
-        <v>43021</v>
+        <v>43087</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>701</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>589</v>
-      </c>
+        <v>781</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="E61" s="22"/>
       <c r="F61" s="17" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>522</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I61" s="13" t="s">
         <v>638</v>
@@ -14782,42 +16739,79 @@
         <v>323</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q61" s="17" t="s">
-        <v>336</v>
+        <v>556</v>
       </c>
       <c r="R61" s="13" t="s">
-        <v>120</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:18" collapsed="1">
-      <c r="A62" s="12"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="P62" s="18"/>
+      <c r="A62" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B62" s="20">
+        <v>43088</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N62" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O62" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P62" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q62" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="R62" s="13" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="63" spans="1:18" collapsed="1">
       <c r="A63" s="12" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="B63" s="20">
-        <v>43021</v>
+        <v>43088</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>703</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>533</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="E63" s="22"/>
       <c r="F63" s="17" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="G63" s="17" t="s">
         <v>522</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>638</v>
@@ -14829,36 +16823,37 @@
         <v>323</v>
       </c>
       <c r="P63" s="18" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q63" s="17" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="R63" s="13" t="s">
-        <v>124</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:18" collapsed="1">
       <c r="A64" s="12" t="s">
-        <v>125</v>
+        <v>362</v>
       </c>
       <c r="B64" s="20">
-        <v>43021</v>
+        <v>43088</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>704</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>534</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="E64" s="22"/>
       <c r="F64" s="17" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="G64" s="17" t="s">
         <v>522</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>638</v>
@@ -14870,72 +16865,328 @@
         <v>323</v>
       </c>
       <c r="P64" s="18" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q64" s="17" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="R64" s="13" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:18" collapsed="1">
-      <c r="A65" s="12"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="P65" s="18"/>
+      <c r="A65" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B65" s="20">
+        <v>43088</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N65" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O65" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P65" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q65" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="R65" s="13" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="66" spans="1:18" collapsed="1">
-      <c r="A66" s="12"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="P66" s="18"/>
+      <c r="A66" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="20">
+        <v>43096</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="E66" s="22"/>
+      <c r="F66" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N66" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O66" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P66" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q66" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="R66" s="13" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="67" spans="1:18" collapsed="1">
-      <c r="A67" s="12"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="P67" s="18"/>
+      <c r="A67" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B67" s="20">
+        <v>43096</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>788</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="E67" s="22"/>
+      <c r="F67" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N67" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O67" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P67" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q67" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="R67" s="13" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="68" spans="1:18" collapsed="1">
-      <c r="A68" s="12"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="P68" s="18"/>
+      <c r="A68" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B68" s="20">
+        <v>43096</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N68" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O68" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P68" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q68" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="R68" s="13" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="69" spans="1:18" collapsed="1">
-      <c r="A69" s="12"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="P69" s="18"/>
+      <c r="A69" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B69" s="20">
+        <v>43096</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="E69" s="22"/>
+      <c r="F69" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N69" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O69" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P69" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q69" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="R69" s="13" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="70" spans="1:18" collapsed="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="P70" s="18"/>
+      <c r="A70" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70" s="20">
+        <v>43097</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="E70" s="22"/>
+      <c r="F70" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N70" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O70" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P70" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q70" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="R70" s="13" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="71" spans="1:18" collapsed="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="P71" s="18"/>
+      <c r="A71" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="20">
+        <v>43097</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>792</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="E71" s="22"/>
+      <c r="F71" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N71" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O71" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P71" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q71" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="R71" s="13" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="72" spans="1:18" collapsed="1">
       <c r="A72" s="12" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="B72" s="20">
-        <v>43038</v>
+        <v>43097</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>712</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>634</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="E72" s="22"/>
       <c r="F72" s="17" t="s">
-        <v>520</v>
+        <v>602</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>522</v>
       </c>
       <c r="H72" s="17" t="s">
         <v>524</v>
@@ -14953,52 +17204,196 @@
         <v>321</v>
       </c>
       <c r="Q72" s="17" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="R72" s="13" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:18" collapsed="1">
-      <c r="A73" s="12"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="P73" s="18"/>
+      <c r="A73" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" s="20">
+        <v>43097</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="E73" s="22"/>
+      <c r="F73" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N73" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O73" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P73" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q73" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="R73" s="13" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="74" spans="1:18" collapsed="1">
-      <c r="A74" s="12"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="P74" s="18"/>
+      <c r="A74" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" s="20">
+        <v>43097</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N74" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O74" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P74" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q74" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="R74" s="13" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="75" spans="1:18" collapsed="1">
-      <c r="A75" s="12"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="P75" s="18"/>
+      <c r="A75" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" s="20">
+        <v>43097</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N75" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O75" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P75" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q75" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="R75" s="13" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="76" spans="1:18" collapsed="1">
-      <c r="A76" s="12"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="P76" s="18"/>
+      <c r="A76" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B76" s="20">
+        <v>43097</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>797</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E76" s="22"/>
+      <c r="F76" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N76" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O76" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P76" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q76" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="R76" s="13" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="77" spans="1:18" collapsed="1">
       <c r="A77" s="12" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B77" s="20">
-        <v>43052</v>
+        <v>43097</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>717</v>
+        <v>798</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="17" t="s">
-        <v>517</v>
+        <v>602</v>
       </c>
       <c r="G77" s="17" t="s">
         <v>522</v>
@@ -15019,34 +17414,34 @@
         <v>321</v>
       </c>
       <c r="Q77" s="17" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="R77" s="13" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:18" collapsed="1">
       <c r="A78" s="12" t="s">
-        <v>193</v>
+        <v>347</v>
       </c>
       <c r="B78" s="20">
-        <v>43052</v>
+        <v>43097</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>718</v>
+        <v>799</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>341</v>
+        <v>610</v>
       </c>
       <c r="E78" s="22"/>
       <c r="F78" s="17" t="s">
-        <v>517</v>
+        <v>602</v>
       </c>
       <c r="G78" s="17" t="s">
         <v>522</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>638</v>
@@ -15061,36 +17456,70 @@
         <v>321</v>
       </c>
       <c r="Q78" s="17" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="R78" s="13" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:18" collapsed="1">
-      <c r="A79" s="12"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="22"/>
+      <c r="A79" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B79" s="20">
+        <v>43097</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>800</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>611</v>
+      </c>
       <c r="E79" s="22"/>
-      <c r="P79" s="18"/>
+      <c r="F79" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N79" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O79" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P79" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q79" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="R79" s="13" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="80" spans="1:18" collapsed="1">
       <c r="A80" s="12" t="s">
-        <v>197</v>
+        <v>349</v>
       </c>
       <c r="B80" s="20">
-        <v>43052</v>
+        <v>43097</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>720</v>
+        <v>801</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="17" t="s">
-        <v>517</v>
+        <v>602</v>
       </c>
       <c r="G80" s="17" t="s">
         <v>522</v>
@@ -15111,28 +17540,28 @@
         <v>321</v>
       </c>
       <c r="Q80" s="17" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="R80" s="13" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:18" collapsed="1">
       <c r="A81" s="12" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B81" s="20">
-        <v>43052</v>
+        <v>43097</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>721</v>
+        <v>802</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="E81" s="22"/>
       <c r="F81" s="17" t="s">
-        <v>517</v>
+        <v>602</v>
       </c>
       <c r="G81" s="17" t="s">
         <v>522</v>
@@ -15153,52 +17582,199 @@
         <v>321</v>
       </c>
       <c r="Q81" s="17" t="s">
-        <v>591</v>
+        <v>350</v>
       </c>
       <c r="R81" s="13" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:18" collapsed="1">
-      <c r="A82" s="12"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="P82" s="18"/>
+      <c r="A82" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B82" s="20">
+        <v>43129</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E82" s="22"/>
+      <c r="F82" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O82" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P82" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q82" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="R82" s="13" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="83" spans="1:18" collapsed="1">
-      <c r="A83" s="12"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="P83" s="18"/>
+      <c r="A83" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B83" s="20">
+        <v>43129</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="E83" s="22"/>
+      <c r="F83" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N83" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O83" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P83" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q83" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="R83" s="13" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="84" spans="1:18" collapsed="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="P84" s="18"/>
+      <c r="A84" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84" s="20">
+        <v>43129</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="E84" s="22"/>
+      <c r="F84" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N84" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O84" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P84" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q84" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="R84" s="13" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="85" spans="1:18" collapsed="1">
-      <c r="A85" s="12"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="P85" s="18"/>
+      <c r="A85" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B85" s="20">
+        <v>43129</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="E85" s="22"/>
+      <c r="F85" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="N85" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="O85" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="P85" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q85" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="R85" s="13" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="86" spans="1:18" collapsed="1">
       <c r="A86" s="12" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B86" s="20">
-        <v>43062</v>
+        <v>43091</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>594</v>
+        <v>448</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>519</v>
       </c>
+      <c r="G86" s="17" t="s">
+        <v>522</v>
+      </c>
       <c r="H86" s="17" t="s">
         <v>529</v>
       </c>
@@ -15212,3192 +17788,1889 @@
         <v>323</v>
       </c>
       <c r="P86" s="18" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="R86" s="13" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:18" collapsed="1">
-      <c r="A87" s="12"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="P87" s="18"/>
-    </row>
-    <row r="88" spans="1:18" collapsed="1">
-      <c r="A88" s="12"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="P88" s="18"/>
-    </row>
-    <row r="89" spans="1:18" collapsed="1">
-      <c r="A89" s="12"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="P89" s="18"/>
-    </row>
-    <row r="90" spans="1:18" collapsed="1">
-      <c r="A90" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" s="20">
-        <v>43063</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>730</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="F90" s="17" t="s">
+      <c r="A87" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" s="20">
+        <v>43095</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="F87" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="G90" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="I90" s="13" t="s">
+      <c r="H87" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="I87" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="N90" s="17" t="s">
+      <c r="N87" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="O90" s="17" t="s">
+      <c r="O87" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="P90" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="R90" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" collapsed="1">
-      <c r="A91" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B91" s="20">
-        <v>43063</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>731</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>539</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="G91" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="I91" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N91" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O91" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P91" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="R91" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" collapsed="1">
-      <c r="A92" s="12"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="P92" s="18"/>
-    </row>
-    <row r="93" spans="1:18" collapsed="1">
-      <c r="A93" s="12"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="P93" s="18"/>
-    </row>
-    <row r="94" spans="1:18" collapsed="1">
-      <c r="A94" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="B94" s="20">
-        <v>43076</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>734</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G94" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H94" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N94" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O94" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P94" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q94" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="R94" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" collapsed="1">
-      <c r="A95" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="B95" s="20">
-        <v>43076</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>735</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N95" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O95" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P95" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q95" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="R95" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" collapsed="1">
-      <c r="A96" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B96" s="20">
-        <v>43076</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>736</v>
-      </c>
-      <c r="D96" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G96" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N96" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O96" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P96" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q96" s="17" t="s">
-        <v>554</v>
-      </c>
-      <c r="R96" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" collapsed="1">
-      <c r="A97" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B97" s="20">
-        <v>43076</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>737</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N97" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O97" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P97" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q97" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="R97" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" collapsed="1">
-      <c r="A98" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B98" s="20">
-        <v>43076</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>738</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G98" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H98" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I98" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N98" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O98" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P98" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q98" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="R98" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" collapsed="1">
-      <c r="A99" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B99" s="20">
-        <v>43076</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>739</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G99" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H99" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N99" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O99" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P99" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q99" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="R99" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" collapsed="1">
-      <c r="A100" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="B100" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>740</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="E100" s="22"/>
-      <c r="F100" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I100" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N100" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O100" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P100" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q100" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="R100" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" collapsed="1">
-      <c r="A101" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="B101" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>741</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I101" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N101" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O101" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P101" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q101" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R101" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" collapsed="1">
-      <c r="A102" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="B102" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>742</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="E102" s="22"/>
-      <c r="F102" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N102" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O102" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P102" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q102" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R102" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" collapsed="1">
-      <c r="A103" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="B103" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C103" s="20" t="s">
-        <v>743</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="E103" s="22"/>
-      <c r="F103" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N103" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O103" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P103" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q103" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R103" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" collapsed="1">
-      <c r="A104" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="B104" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>744</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="E104" s="22"/>
-      <c r="F104" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N104" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O104" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P104" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q104" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R104" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" collapsed="1">
-      <c r="A105" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B105" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="E105" s="22"/>
-      <c r="F105" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H105" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I105" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N105" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O105" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P105" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q105" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R105" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" collapsed="1">
-      <c r="A106" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="B106" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="E106" s="22"/>
-      <c r="F106" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H106" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N106" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O106" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P106" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q106" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R106" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" collapsed="1">
-      <c r="A107" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="B107" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C107" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="E107" s="22"/>
-      <c r="F107" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H107" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N107" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O107" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P107" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q107" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R107" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" collapsed="1">
-      <c r="A108" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="B108" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>748</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="E108" s="22"/>
-      <c r="F108" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H108" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I108" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N108" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O108" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P108" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q108" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R108" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" collapsed="1">
-      <c r="A109" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="B109" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>749</v>
-      </c>
-      <c r="D109" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="E109" s="22"/>
-      <c r="F109" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H109" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I109" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N109" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O109" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P109" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q109" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R109" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" collapsed="1">
-      <c r="A110" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B110" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C110" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="E110" s="22"/>
-      <c r="F110" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H110" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I110" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N110" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O110" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P110" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q110" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R110" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" collapsed="1">
-      <c r="A111" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B111" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C111" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="D111" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="E111" s="22"/>
-      <c r="F111" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H111" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I111" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N111" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O111" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P111" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q111" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R111" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" collapsed="1">
-      <c r="A112" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="B112" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>752</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="E112" s="22"/>
-      <c r="F112" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H112" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I112" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N112" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O112" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P112" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q112" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R112" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" collapsed="1">
-      <c r="A113" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="B113" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="E113" s="22"/>
-      <c r="F113" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H113" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I113" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N113" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O113" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P113" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q113" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R113" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" collapsed="1">
-      <c r="A114" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="B114" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="E114" s="22"/>
-      <c r="F114" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H114" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N114" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O114" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P114" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q114" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R114" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" collapsed="1">
-      <c r="A115" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="B115" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C115" s="20" t="s">
-        <v>755</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="E115" s="22"/>
-      <c r="F115" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H115" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I115" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N115" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O115" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P115" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q115" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R115" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" collapsed="1">
-      <c r="A116" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="B116" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>756</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="E116" s="22"/>
-      <c r="F116" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H116" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N116" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O116" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P116" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q116" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R116" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" collapsed="1">
-      <c r="A117" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="B117" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>757</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="E117" s="22"/>
-      <c r="F117" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H117" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I117" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N117" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O117" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P117" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q117" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R117" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" collapsed="1">
-      <c r="A118" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="B118" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>758</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="E118" s="22"/>
-      <c r="F118" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H118" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I118" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N118" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O118" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P118" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q118" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R118" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" collapsed="1">
-      <c r="A119" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B119" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>759</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>475</v>
-      </c>
-      <c r="E119" s="22"/>
-      <c r="F119" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H119" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N119" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O119" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P119" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q119" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R119" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" collapsed="1">
-      <c r="A120" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="B120" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="D120" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H120" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I120" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N120" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O120" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P120" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q120" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R120" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" collapsed="1">
-      <c r="A121" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="B121" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>761</v>
-      </c>
-      <c r="D121" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H121" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I121" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N121" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O121" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P121" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q121" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R121" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" collapsed="1">
-      <c r="A122" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="B122" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="D122" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="E122" s="22"/>
-      <c r="F122" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H122" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I122" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N122" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O122" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P122" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q122" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R122" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" collapsed="1">
-      <c r="A123" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B123" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="D123" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="E123" s="22"/>
-      <c r="F123" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H123" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N123" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O123" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P123" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q123" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R123" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" collapsed="1">
-      <c r="A124" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B124" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>764</v>
-      </c>
-      <c r="D124" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="E124" s="22"/>
-      <c r="F124" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H124" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N124" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O124" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P124" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q124" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R124" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" collapsed="1">
-      <c r="A125" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="B125" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="D125" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="E125" s="22"/>
-      <c r="F125" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H125" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I125" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N125" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O125" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P125" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q125" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R125" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" collapsed="1">
-      <c r="A126" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="B126" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>766</v>
-      </c>
-      <c r="D126" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="E126" s="22"/>
-      <c r="F126" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H126" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I126" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N126" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O126" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P126" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q126" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R126" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" collapsed="1">
-      <c r="A127" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B127" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="E127" s="22"/>
-      <c r="F127" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H127" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I127" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N127" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O127" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P127" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q127" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="R127" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" collapsed="1">
-      <c r="A128" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="B128" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>768</v>
-      </c>
-      <c r="D128" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H128" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I128" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N128" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O128" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P128" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q128" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R128" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" collapsed="1">
-      <c r="A129" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B129" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="D129" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="E129" s="22"/>
-      <c r="F129" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H129" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I129" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N129" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O129" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P129" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q129" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R129" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" collapsed="1">
-      <c r="A130" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="B130" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="D130" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="E130" s="22"/>
-      <c r="F130" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H130" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I130" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N130" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O130" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P130" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q130" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R130" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" collapsed="1">
-      <c r="A131" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="B131" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="D131" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="E131" s="22"/>
-      <c r="F131" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H131" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I131" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N131" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O131" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P131" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q131" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R131" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" collapsed="1">
-      <c r="A132" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="B132" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="D132" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="E132" s="22"/>
-      <c r="F132" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H132" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I132" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N132" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O132" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P132" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q132" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R132" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" collapsed="1">
-      <c r="A133" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="B133" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>773</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H133" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I133" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N133" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O133" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P133" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q133" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R133" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" collapsed="1">
-      <c r="A134" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B134" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>774</v>
-      </c>
-      <c r="D134" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H134" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I134" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N134" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O134" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P134" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q134" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R134" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" collapsed="1">
-      <c r="A135" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="B135" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>775</v>
-      </c>
-      <c r="D135" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="H135" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I135" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N135" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O135" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P135" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q135" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="R135" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" collapsed="1">
-      <c r="A136" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="B136" s="20">
-        <v>43082</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="E136" s="22"/>
-      <c r="F136" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G136" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H136" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I136" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N136" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O136" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P136" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q136" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="R136" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" collapsed="1">
-      <c r="A137" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="B137" s="20">
-        <v>43083</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="D137" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="E137" s="22"/>
-      <c r="F137" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G137" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H137" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I137" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N137" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O137" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P137" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q137" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="R137" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" collapsed="1">
-      <c r="A138" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="B138" s="20">
-        <v>43087</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>778</v>
-      </c>
-      <c r="D138" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="E138" s="22"/>
-      <c r="F138" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H138" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I138" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N138" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O138" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P138" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q138" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="R138" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" collapsed="1">
-      <c r="A139" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="B139" s="20">
-        <v>43087</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="D139" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="E139" s="22"/>
-      <c r="F139" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G139" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H139" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I139" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N139" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O139" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P139" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q139" s="17" t="s">
-        <v>554</v>
-      </c>
-      <c r="R139" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" collapsed="1">
-      <c r="A140" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="B140" s="20">
-        <v>43087</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>780</v>
-      </c>
-      <c r="D140" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="E140" s="22"/>
-      <c r="F140" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G140" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H140" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I140" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N140" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O140" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P140" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q140" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="R140" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" collapsed="1">
-      <c r="A141" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="B141" s="20">
-        <v>43087</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="D141" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="E141" s="22"/>
-      <c r="F141" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G141" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H141" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I141" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N141" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O141" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P141" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q141" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="R141" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" collapsed="1">
-      <c r="A142" s="12"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="22"/>
-      <c r="P142" s="18"/>
-    </row>
-    <row r="143" spans="1:18" collapsed="1">
-      <c r="A143" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="B143" s="20">
-        <v>43088</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>783</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G143" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H143" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I143" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N143" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O143" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P143" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q143" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="R143" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" collapsed="1">
-      <c r="A144" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B144" s="20">
-        <v>43088</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>784</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="E144" s="22"/>
-      <c r="F144" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G144" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H144" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I144" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N144" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O144" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P144" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q144" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="R144" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" collapsed="1">
-      <c r="A145" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B145" s="20">
-        <v>43088</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>785</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G145" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H145" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I145" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N145" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O145" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P145" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q145" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="R145" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" collapsed="1">
-      <c r="A146" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="B146" s="20">
-        <v>43088</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>786</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="E146" s="22"/>
-      <c r="F146" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G146" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H146" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I146" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N146" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O146" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P146" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q146" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="R146" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" collapsed="1">
-      <c r="A147" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B147" s="20">
-        <v>43096</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>787</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="E147" s="22"/>
-      <c r="F147" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G147" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H147" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="I147" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N147" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O147" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P147" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q147" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="R147" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" collapsed="1">
-      <c r="A148" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="B148" s="20">
-        <v>43096</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>788</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="E148" s="22"/>
-      <c r="F148" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G148" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H148" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="I148" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N148" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O148" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P148" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q148" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="R148" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" collapsed="1">
-      <c r="A149" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B149" s="20">
-        <v>43096</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>789</v>
-      </c>
-      <c r="D149" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G149" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H149" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="I149" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N149" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O149" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P149" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q149" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="R149" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" collapsed="1">
-      <c r="A150" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B150" s="20">
-        <v>43096</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>790</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="E150" s="22"/>
-      <c r="F150" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G150" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H150" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="I150" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N150" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O150" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P150" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q150" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="R150" s="13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" collapsed="1">
-      <c r="A151" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B151" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>791</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="E151" s="22"/>
-      <c r="F151" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G151" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H151" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I151" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N151" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O151" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P151" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q151" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="R151" s="13" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" collapsed="1">
-      <c r="A152" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B152" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>792</v>
-      </c>
-      <c r="D152" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="E152" s="22"/>
-      <c r="F152" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G152" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H152" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I152" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N152" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O152" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P152" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q152" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="R152" s="13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" collapsed="1">
-      <c r="A153" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B153" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>793</v>
-      </c>
-      <c r="D153" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="E153" s="22"/>
-      <c r="F153" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G153" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H153" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I153" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N153" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O153" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P153" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q153" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="R153" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" collapsed="1">
-      <c r="A154" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B154" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C154" s="20" t="s">
-        <v>794</v>
-      </c>
-      <c r="D154" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="E154" s="22"/>
-      <c r="F154" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G154" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H154" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I154" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N154" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O154" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P154" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q154" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="R154" s="13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" collapsed="1">
-      <c r="A155" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B155" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C155" s="20" t="s">
-        <v>795</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="E155" s="22"/>
-      <c r="F155" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G155" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H155" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I155" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N155" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O155" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P155" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q155" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="R155" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" collapsed="1">
-      <c r="A156" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B156" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C156" s="20" t="s">
-        <v>796</v>
-      </c>
-      <c r="D156" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="E156" s="22"/>
-      <c r="F156" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G156" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H156" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I156" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N156" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O156" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P156" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q156" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="R156" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" collapsed="1">
-      <c r="A157" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B157" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C157" s="20" t="s">
-        <v>797</v>
-      </c>
-      <c r="D157" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="E157" s="22"/>
-      <c r="F157" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G157" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H157" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I157" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N157" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O157" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P157" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q157" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="R157" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" collapsed="1">
-      <c r="A158" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="B158" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C158" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="D158" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="E158" s="22"/>
-      <c r="F158" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G158" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H158" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I158" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N158" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O158" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P158" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q158" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="R158" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" collapsed="1">
-      <c r="A159" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="B159" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C159" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="D159" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E159" s="22"/>
-      <c r="F159" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G159" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H159" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I159" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N159" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O159" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P159" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q159" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="R159" s="13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" collapsed="1">
-      <c r="A160" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="B160" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>800</v>
-      </c>
-      <c r="D160" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="E160" s="22"/>
-      <c r="F160" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G160" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H160" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I160" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N160" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O160" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P160" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q160" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="R160" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" collapsed="1">
-      <c r="A161" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B161" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C161" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="D161" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="E161" s="22"/>
-      <c r="F161" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G161" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H161" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I161" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N161" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O161" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P161" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q161" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="R161" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" collapsed="1">
-      <c r="A162" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B162" s="20">
-        <v>43097</v>
-      </c>
-      <c r="C162" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="E162" s="22"/>
-      <c r="F162" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G162" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H162" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I162" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N162" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O162" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P162" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q162" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="R162" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" collapsed="1">
-      <c r="A163" s="12"/>
-      <c r="B163" s="20"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
-      <c r="P163" s="18"/>
-    </row>
-    <row r="164" spans="1:18" collapsed="1">
-      <c r="A164" s="12"/>
-      <c r="B164" s="20"/>
-      <c r="C164" s="20"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="22"/>
-      <c r="P164" s="18"/>
-    </row>
-    <row r="165" spans="1:18" collapsed="1">
-      <c r="A165" s="12"/>
-      <c r="B165" s="20"/>
-      <c r="C165" s="20"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="22"/>
-      <c r="P165" s="18"/>
-    </row>
-    <row r="166" spans="1:18" collapsed="1">
-      <c r="A166" s="12"/>
-      <c r="B166" s="20"/>
-      <c r="C166" s="20"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22"/>
-      <c r="P166" s="18"/>
-    </row>
-    <row r="167" spans="1:18" collapsed="1">
-      <c r="A167" s="12"/>
-      <c r="B167" s="20"/>
-      <c r="C167" s="20"/>
-      <c r="P167" s="18"/>
-    </row>
-    <row r="168" spans="1:18" collapsed="1">
-      <c r="A168" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B168" s="20">
-        <v>43129</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="D168" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="E168" s="22"/>
-      <c r="F168" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G168" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H168" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I168" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N168" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O168" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P168" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q168" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="R168" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" collapsed="1">
-      <c r="A169" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B169" s="20">
-        <v>43129</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>809</v>
-      </c>
-      <c r="D169" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="E169" s="22"/>
-      <c r="F169" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G169" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H169" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I169" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N169" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O169" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P169" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q169" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="R169" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" collapsed="1">
-      <c r="A170" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="B170" s="20">
-        <v>43129</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="D170" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="E170" s="22"/>
-      <c r="F170" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G170" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H170" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I170" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N170" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O170" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P170" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q170" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="R170" s="13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" collapsed="1">
-      <c r="A171" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="B171" s="20">
-        <v>43129</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>811</v>
-      </c>
-      <c r="D171" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="E171" s="22"/>
-      <c r="F171" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G171" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H171" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I171" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N171" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O171" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P171" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q171" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="R171" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" collapsed="1">
-      <c r="A172" s="12"/>
-      <c r="B172" s="20"/>
-      <c r="C172" s="20"/>
-      <c r="P172" s="18"/>
-    </row>
-    <row r="173" spans="1:18" collapsed="1">
-      <c r="A173" s="12"/>
-      <c r="B173" s="20"/>
-      <c r="C173" s="20"/>
-      <c r="P173" s="18"/>
-    </row>
-    <row r="174" spans="1:18" collapsed="1">
-      <c r="A174" s="12"/>
-      <c r="B174" s="20"/>
-      <c r="C174" s="20"/>
-      <c r="P174" s="18"/>
-    </row>
-    <row r="175" spans="1:18" collapsed="1">
-      <c r="A175" s="12"/>
-      <c r="B175" s="20"/>
-      <c r="C175" s="20"/>
-      <c r="P175" s="18"/>
-    </row>
-    <row r="176" spans="1:18" collapsed="1">
-      <c r="A176" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B176" s="20">
-        <v>43091</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>816</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="F176" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="G176" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="H176" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="I176" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N176" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O176" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P176" s="18" t="s">
+      <c r="P87" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="R176" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" collapsed="1">
-      <c r="A177" s="12"/>
-      <c r="B177" s="20"/>
-      <c r="C177" s="20"/>
-      <c r="P177" s="18"/>
-    </row>
-    <row r="178" spans="1:18" collapsed="1">
-      <c r="A178" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B178" s="20">
-        <v>43095</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>818</v>
-      </c>
-      <c r="D178" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="F178" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="H178" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="I178" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="N178" s="17" t="s">
-        <v>637</v>
-      </c>
-      <c r="O178" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="P178" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="R178" s="13" t="s">
+      <c r="R87" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:18" collapsed="1">
-      <c r="A179" s="12"/>
-      <c r="B179" s="20"/>
-      <c r="C179" s="20"/>
-      <c r="P179" s="18"/>
-    </row>
-    <row r="180" spans="1:18" collapsed="1"/>
+    <row r="88" spans="1:18" ht="15" collapsed="1">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+    </row>
+    <row r="89" spans="1:18" ht="15" collapsed="1">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+    </row>
+    <row r="90" spans="1:18" ht="15" collapsed="1">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+    </row>
+    <row r="91" spans="1:18" ht="15" collapsed="1">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+    </row>
+    <row r="92" spans="1:18" ht="15" collapsed="1">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+    </row>
+    <row r="93" spans="1:18" ht="15" collapsed="1">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+    </row>
+    <row r="94" spans="1:18" ht="15" collapsed="1">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+    </row>
+    <row r="95" spans="1:18" ht="15" collapsed="1">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+    </row>
+    <row r="96" spans="1:18" ht="15" collapsed="1">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+    </row>
+    <row r="97" spans="1:18" ht="15" collapsed="1">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+    </row>
+    <row r="98" spans="1:18" ht="15" collapsed="1">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+    </row>
+    <row r="99" spans="1:18" ht="15" collapsed="1">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+    </row>
+    <row r="100" spans="1:18" ht="15" collapsed="1">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+    </row>
+    <row r="101" spans="1:18" ht="15" collapsed="1">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+    </row>
+    <row r="102" spans="1:18" ht="15" collapsed="1">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+    </row>
+    <row r="103" spans="1:18" ht="15" collapsed="1">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+    </row>
+    <row r="104" spans="1:18" ht="15" collapsed="1">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+    </row>
+    <row r="105" spans="1:18" ht="15" collapsed="1">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+    </row>
+    <row r="106" spans="1:18" ht="15" collapsed="1">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+    </row>
+    <row r="107" spans="1:18" ht="15" collapsed="1">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+    </row>
+    <row r="108" spans="1:18" ht="15" collapsed="1">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+    </row>
+    <row r="109" spans="1:18" ht="15" collapsed="1">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+    </row>
+    <row r="110" spans="1:18" ht="15" collapsed="1">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+    </row>
+    <row r="111" spans="1:18" ht="15" collapsed="1">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+    </row>
+    <row r="112" spans="1:18" ht="15" collapsed="1">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+    </row>
+    <row r="113" spans="1:18" ht="15" collapsed="1">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+    </row>
+    <row r="114" spans="1:18" ht="15" collapsed="1">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+    </row>
+    <row r="115" spans="1:18" ht="15" collapsed="1">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+    </row>
+    <row r="116" spans="1:18" ht="15" collapsed="1">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+    </row>
+    <row r="117" spans="1:18" ht="15" collapsed="1">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+    </row>
+    <row r="118" spans="1:18" ht="15" collapsed="1">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+    </row>
+    <row r="119" spans="1:18" ht="15" collapsed="1">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+    </row>
+    <row r="120" spans="1:18" ht="15" collapsed="1">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+    </row>
+    <row r="121" spans="1:18" ht="15" collapsed="1">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+    </row>
+    <row r="122" spans="1:18" ht="15" collapsed="1">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+    </row>
+    <row r="123" spans="1:18" ht="15" collapsed="1">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+    </row>
+    <row r="124" spans="1:18" ht="15" collapsed="1">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+    </row>
+    <row r="125" spans="1:18" ht="15" collapsed="1">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+    </row>
+    <row r="126" spans="1:18" ht="15" collapsed="1">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+    </row>
+    <row r="127" spans="1:18" ht="15" collapsed="1">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+    </row>
+    <row r="128" spans="1:18" ht="15" collapsed="1">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+    </row>
+    <row r="129" spans="1:18" ht="15" collapsed="1">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+    </row>
+    <row r="130" spans="1:18" ht="15" collapsed="1">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+    </row>
+    <row r="131" spans="1:18" ht="15" collapsed="1">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+    </row>
+    <row r="132" spans="1:18" ht="15" collapsed="1">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+    </row>
+    <row r="133" spans="1:18" ht="15" collapsed="1">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+    </row>
+    <row r="134" spans="1:18" ht="15" collapsed="1">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+    </row>
+    <row r="135" spans="1:18" ht="15" collapsed="1">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+    </row>
+    <row r="136" spans="1:18" ht="15" collapsed="1">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+    </row>
+    <row r="137" spans="1:18" ht="15" collapsed="1">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+    </row>
+    <row r="138" spans="1:18" ht="15" collapsed="1">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+    </row>
+    <row r="139" spans="1:18" ht="15" collapsed="1">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+    </row>
+    <row r="140" spans="1:18" ht="15" collapsed="1">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+    </row>
+    <row r="141" spans="1:18" ht="15" collapsed="1">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+    </row>
+    <row r="142" spans="1:18" ht="15" collapsed="1">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+    </row>
+    <row r="143" spans="1:18" ht="15" collapsed="1">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+    </row>
+    <row r="144" spans="1:18" ht="15" collapsed="1">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+    </row>
+    <row r="145" spans="1:18" ht="15" collapsed="1">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+    </row>
+    <row r="146" spans="1:18" ht="15" collapsed="1">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+    </row>
+    <row r="147" spans="1:18" ht="15" collapsed="1">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+    </row>
+    <row r="148" spans="1:18" ht="15" collapsed="1">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+    </row>
+    <row r="149" spans="1:18" ht="15" collapsed="1">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+    </row>
+    <row r="150" spans="1:18" ht="15" collapsed="1">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150"/>
+    </row>
+    <row r="151" spans="1:18" ht="15" collapsed="1">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+    </row>
+    <row r="152" spans="1:18" ht="15" collapsed="1">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+    </row>
+    <row r="153" spans="1:18" ht="15" collapsed="1">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153"/>
+    </row>
+    <row r="154" spans="1:18" ht="15" collapsed="1">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+    </row>
+    <row r="155" spans="1:18" ht="15" collapsed="1">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+    </row>
+    <row r="156" spans="1:18" ht="15" collapsed="1">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+    </row>
+    <row r="157" spans="1:18" ht="15" collapsed="1">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+    </row>
+    <row r="158" spans="1:18" ht="15" collapsed="1">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158"/>
+    </row>
+    <row r="159" spans="1:18" ht="15" collapsed="1">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+      <c r="R159"/>
+    </row>
+    <row r="160" spans="1:18" ht="15" collapsed="1">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+      <c r="R160"/>
+    </row>
+    <row r="161" spans="1:18" ht="15" collapsed="1">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
+      <c r="R161"/>
+    </row>
+    <row r="162" spans="1:18" ht="15" collapsed="1">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+      <c r="Q162"/>
+      <c r="R162"/>
+    </row>
+    <row r="163" spans="1:18" ht="15" collapsed="1">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+      <c r="Q163"/>
+      <c r="R163"/>
+    </row>
+    <row r="164" spans="1:18" ht="15" collapsed="1">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+      <c r="Q164"/>
+      <c r="R164"/>
+    </row>
+    <row r="165" spans="1:18" ht="15" collapsed="1">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165"/>
+      <c r="Q165"/>
+      <c r="R165"/>
+    </row>
+    <row r="166" spans="1:18" ht="15" collapsed="1">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166"/>
+      <c r="O166"/>
+      <c r="P166"/>
+      <c r="Q166"/>
+      <c r="R166"/>
+    </row>
+    <row r="167" spans="1:18" ht="15" collapsed="1">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+      <c r="Q167"/>
+      <c r="R167"/>
+    </row>
+    <row r="168" spans="1:18" ht="15" collapsed="1">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168"/>
+      <c r="Q168"/>
+      <c r="R168"/>
+    </row>
+    <row r="169" spans="1:18" ht="15" collapsed="1">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+      <c r="Q169"/>
+      <c r="R169"/>
+    </row>
+    <row r="170" spans="1:18" ht="15" collapsed="1">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+      <c r="Q170"/>
+      <c r="R170"/>
+    </row>
+    <row r="171" spans="1:18" ht="15" collapsed="1">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+      <c r="Q171"/>
+      <c r="R171"/>
+    </row>
+    <row r="172" spans="1:18" ht="15" collapsed="1">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+      <c r="Q172"/>
+      <c r="R172"/>
+    </row>
+    <row r="173" spans="1:18" ht="15" collapsed="1">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173"/>
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173"/>
+      <c r="Q173"/>
+      <c r="R173"/>
+    </row>
+    <row r="174" spans="1:18" ht="15" collapsed="1">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174"/>
+      <c r="I174"/>
+      <c r="J174"/>
+      <c r="K174"/>
+      <c r="L174"/>
+      <c r="M174"/>
+      <c r="N174"/>
+      <c r="O174"/>
+      <c r="P174"/>
+      <c r="Q174"/>
+      <c r="R174"/>
+    </row>
+    <row r="175" spans="1:18" ht="15" collapsed="1">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175"/>
+      <c r="Q175"/>
+      <c r="R175"/>
+    </row>
+    <row r="176" spans="1:18" ht="15" collapsed="1">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176"/>
+      <c r="Q176"/>
+      <c r="R176"/>
+    </row>
+    <row r="177" spans="1:18" ht="15" collapsed="1">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177"/>
+      <c r="Q177"/>
+      <c r="R177"/>
+    </row>
+    <row r="178" spans="1:18" ht="15" collapsed="1">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178"/>
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178"/>
+      <c r="Q178"/>
+      <c r="R178"/>
+    </row>
+    <row r="179" spans="1:18" ht="15" collapsed="1">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+      <c r="Q179"/>
+      <c r="R179"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T179">
+  <autoFilter ref="A1:T178">
     <filterColumn colId="2"/>
     <filterColumn colId="4"/>
     <filterColumn colId="6"/>
@@ -18407,182 +19680,181 @@
   </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A42" r:id="rId1"/>
-    <hyperlink ref="A61" r:id="rId2"/>
-    <hyperlink ref="A63" r:id="rId3"/>
-    <hyperlink ref="A64" r:id="rId4"/>
-    <hyperlink ref="A72" r:id="rId5"/>
-    <hyperlink ref="A77" r:id="rId6" display="171113_내사경 [예고편] 전체 예고 40초 수정_OBS.mp4"/>
-    <hyperlink ref="A78" r:id="rId7"/>
-    <hyperlink ref="A80" r:id="rId8"/>
-    <hyperlink ref="A81" r:id="rId9" display="171113_내사경_[스팟 40초] 수정2_OBS.mp4"/>
-    <hyperlink ref="A86" r:id="rId10"/>
-    <hyperlink ref="A90" r:id="rId11"/>
-    <hyperlink ref="A91" r:id="rId12"/>
-    <hyperlink ref="A94" r:id="rId13" display="171207_내사경_[1차 가편집본] 1편 유산_OBS.mp4"/>
-    <hyperlink ref="A95" r:id="rId14" display="171207_내사경_[1차 가편집본] 2편 사람 (완성본)_OBS.mp4"/>
-    <hyperlink ref="A96" r:id="rId15" display="171207_내사경_[1차 가편집본] 3편 마을 (완성본)_OBS.mp4"/>
-    <hyperlink ref="A97" r:id="rId16" display="171207_내사경_[1차 가편집본] 3편 마을 1차_OBS.mp4"/>
-    <hyperlink ref="A98" r:id="rId17" display="171207_내사경_[1차 가편집본] 4편 명소 (완성본)_OBS.mp4"/>
-    <hyperlink ref="A99" r:id="rId18"/>
-    <hyperlink ref="A100" r:id="rId19" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (1).png"/>
-    <hyperlink ref="A101" r:id="rId20" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (2).png"/>
-    <hyperlink ref="A102" r:id="rId21" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (3).png"/>
-    <hyperlink ref="A103" r:id="rId22" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (4).png"/>
-    <hyperlink ref="A104" r:id="rId23" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (5).png"/>
-    <hyperlink ref="A105" r:id="rId24" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (6).png"/>
-    <hyperlink ref="A106" r:id="rId25" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (7).png"/>
-    <hyperlink ref="A107" r:id="rId26" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (8).png"/>
-    <hyperlink ref="A108" r:id="rId27" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (9).png"/>
-    <hyperlink ref="A109" r:id="rId28" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (10).png"/>
-    <hyperlink ref="A110" r:id="rId29" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (11).png"/>
-    <hyperlink ref="A111" r:id="rId30" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (12).png"/>
-    <hyperlink ref="A112" r:id="rId31" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (1).png"/>
-    <hyperlink ref="A113" r:id="rId32" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (2).png"/>
-    <hyperlink ref="A114" r:id="rId33" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (3).png"/>
-    <hyperlink ref="A115" r:id="rId34" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (4).png"/>
-    <hyperlink ref="A116" r:id="rId35" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (5).png"/>
-    <hyperlink ref="A117" r:id="rId36" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (1).png"/>
-    <hyperlink ref="A118" r:id="rId37" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (2).png"/>
-    <hyperlink ref="A119" r:id="rId38" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (3).png"/>
-    <hyperlink ref="A120" r:id="rId39" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (4).png"/>
-    <hyperlink ref="A121" r:id="rId40" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (5).png"/>
-    <hyperlink ref="A122" r:id="rId41" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (6).png"/>
-    <hyperlink ref="A123" r:id="rId42" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (7).png"/>
-    <hyperlink ref="A124" r:id="rId43" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (8).png"/>
-    <hyperlink ref="A125" r:id="rId44" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (9).png"/>
-    <hyperlink ref="A126" r:id="rId45" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (10).png"/>
-    <hyperlink ref="A127" r:id="rId46" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (11).png"/>
-    <hyperlink ref="A128" r:id="rId47" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (1).png"/>
-    <hyperlink ref="A129" r:id="rId48" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (2).png"/>
-    <hyperlink ref="A130" r:id="rId49" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (3).png"/>
-    <hyperlink ref="A131" r:id="rId50" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (4).png"/>
-    <hyperlink ref="A132" r:id="rId51" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (5).png"/>
-    <hyperlink ref="A133" r:id="rId52" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (6).png"/>
-    <hyperlink ref="A134" r:id="rId53" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (7).png"/>
-    <hyperlink ref="A135" r:id="rId54" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (8).png"/>
-    <hyperlink ref="A136" r:id="rId55" display="171213_내사경_[주요장면 편집본] 1편 유산.MP4"/>
-    <hyperlink ref="A137" r:id="rId56" display="171214_내사경_[주요장면 편집본] 1편 문화유산.MP4"/>
-    <hyperlink ref="A138" r:id="rId57" display="171218_내사경_[2차 가편집본] 1편 유산_OBS.mp4"/>
-    <hyperlink ref="A139" r:id="rId58" display="171218_내사경_[2차 가편집본] 2편 사람_OBS.mp4"/>
-    <hyperlink ref="A140" r:id="rId59" display="171218_내사경_[2차 가편집본] 3편 마을_OBS.mp4"/>
-    <hyperlink ref="A141" r:id="rId60" display="171218_내사경_[2차 가편집본] 4편 명소_OBS.mp4"/>
-    <hyperlink ref="A143" r:id="rId61" display="171219_내사경_[자막편집본] 1편 유산2_OBS.mp4"/>
-    <hyperlink ref="A144" r:id="rId62" display="171219_내사경_[자막편집본] 2편 사람_OBS.mp4"/>
-    <hyperlink ref="A145" r:id="rId63" display="171219_내사경_[자막편집본] 3편 마을_OBS.mp4"/>
-    <hyperlink ref="A146" r:id="rId64" display="171219_내사경_[자막편집본] 4편 명소_OBS.mp4"/>
-    <hyperlink ref="A147" r:id="rId65"/>
-    <hyperlink ref="A148" r:id="rId66"/>
-    <hyperlink ref="A149" r:id="rId67"/>
-    <hyperlink ref="A150" r:id="rId68" display="171227_내사경_[하이라이트(2분30초)] 4편 경기에가고싶다_OBS.mov"/>
-    <hyperlink ref="A151" r:id="rId69"/>
-    <hyperlink ref="A152" r:id="rId70"/>
-    <hyperlink ref="A153" r:id="rId71"/>
-    <hyperlink ref="A154" r:id="rId72"/>
-    <hyperlink ref="A155" r:id="rId73"/>
-    <hyperlink ref="A156" r:id="rId74"/>
-    <hyperlink ref="A157" r:id="rId75" display="171228_내사경_[최종 15초] 4편 명소1_OBS.mp4"/>
-    <hyperlink ref="A158" r:id="rId76" display="171228_내사경_[최종 15초] 4편 명소2_OBS.mp4"/>
-    <hyperlink ref="A159" r:id="rId77" display="171228_내사경_[최종방영본 45분] 1편 문화유산의보고경기도_OBS.mp4"/>
-    <hyperlink ref="A160" r:id="rId78" display="171228_내사경_[최종방영본 45분] 2편 아름다운사람들경기도민_OBS.mp4"/>
-    <hyperlink ref="A161" r:id="rId79" display="171228_내사경_[최종방영본 45분] 3편 머물고싶은경기_OBS.mp4"/>
-    <hyperlink ref="A162" r:id="rId80" display="171228_내사경_[최종방영본 45분] 4편 경기에가고싶다_OBS.mp4"/>
-    <hyperlink ref="A168" r:id="rId81" display="180129_내사경_[영상클린본 45분] 1편 문화유산의보고경기도_OBS.mp4"/>
-    <hyperlink ref="A169" r:id="rId82" display="180129_내사경_[영상클린본 45분] 2편 아름다운사람들경기도민_OBS.mp4"/>
-    <hyperlink ref="A170" r:id="rId83" display="180129_내사경_[영상클린본 45분] 3편 머물고싶은경기_OBS.mp4"/>
-    <hyperlink ref="A171" r:id="rId84" display="180129_내사경_[영상클린본 45분] 4편 경기에가고싶다_OBS.mp4"/>
-    <hyperlink ref="A176" r:id="rId85"/>
-    <hyperlink ref="A178" r:id="rId86"/>
-    <hyperlink ref="B42" r:id="rId87" display="170919_내사경_내가 사랑하는 경기 샘플영상_OBS.mp4"/>
-    <hyperlink ref="B61" r:id="rId88" display="171013_내사경_내가 사랑하는 경기 영상 제작 용역 [보안각서]_OBS.jpg"/>
-    <hyperlink ref="B63" r:id="rId89" display="171013_내사경_내가 사랑하는 경기 영상 제작 용역 [착수계 공문]_OBS.jpg"/>
-    <hyperlink ref="B64" r:id="rId90" display="171013_내사경_내가 사랑하는 경기 영상 제작 용역 [착수계]_OBS.jpg"/>
-    <hyperlink ref="B72" r:id="rId91" display="171030_내사경_[리서치] 스마트사업 풍도2부 홈페이지용_윤지원.mp4"/>
-    <hyperlink ref="B77" r:id="rId92" display="171113_내사경 [예고편] 전체 예고 40초 수정_OBS.mp4"/>
-    <hyperlink ref="B78" r:id="rId93" display="171113_내사경_[스팟 25초] mxf파일_OBS.mxf"/>
-    <hyperlink ref="B80" r:id="rId94" display="171113_내사경_[스팟 25초] 수정_OBS.mp4"/>
-    <hyperlink ref="B81" r:id="rId95" display="171113_내사경_[스팟 40초] 수정2_OBS.mp4"/>
-    <hyperlink ref="B86" r:id="rId96" display="171123_내사경_내가 사랑하는 경기 영상 제작 촬영스케줄(11월24일)_황록주.png"/>
-    <hyperlink ref="B90" r:id="rId97" display="171124 내사경_내가 사랑하는 경기 영상 제작 촬영스케줄(도지사인터뷰)_경기도청.jpg"/>
-    <hyperlink ref="B91" r:id="rId98" display="171124_내사경_내가 사랑하는 경기 영상 제작 (도지사님 인터뷰 내용)_황록주.jpg"/>
-    <hyperlink ref="B94" r:id="rId99" display="171207_내사경_[1차 가편집본] 1편 유산_OBS.mp4"/>
-    <hyperlink ref="B95" r:id="rId100" display="171207_내사경_[1차 가편집본] 2편 사람 (완성본)_OBS.mp4"/>
-    <hyperlink ref="B96" r:id="rId101" display="171207_내사경_[1차 가편집본] 3편 마을 (완성본)_OBS.mp4"/>
-    <hyperlink ref="B97" r:id="rId102" display="171207_내사경_[1차 가편집본] 3편 마을 1차_OBS.mp4"/>
-    <hyperlink ref="B98" r:id="rId103" display="171207_내사경_[1차 가편집본] 4편 명소 (완성본)_OBS.mp4"/>
-    <hyperlink ref="B99" r:id="rId104" display="171207_내사경_[마스터] 1편 유산2_OBS.mp4"/>
-    <hyperlink ref="B100" r:id="rId105" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (1).png"/>
-    <hyperlink ref="B101" r:id="rId106" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (2).png"/>
-    <hyperlink ref="B102" r:id="rId107" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (3).png"/>
-    <hyperlink ref="B103" r:id="rId108" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (4).png"/>
-    <hyperlink ref="B104" r:id="rId109" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (5).png"/>
-    <hyperlink ref="B105" r:id="rId110" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (6).png"/>
-    <hyperlink ref="B106" r:id="rId111" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (7).png"/>
-    <hyperlink ref="B107" r:id="rId112" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (8).png"/>
-    <hyperlink ref="B108" r:id="rId113" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (9).png"/>
-    <hyperlink ref="B109" r:id="rId114" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (10).png"/>
-    <hyperlink ref="B110" r:id="rId115" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (11).png"/>
-    <hyperlink ref="B111" r:id="rId116" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (12).png"/>
-    <hyperlink ref="B112" r:id="rId117" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (1).png"/>
-    <hyperlink ref="B113" r:id="rId118" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (2).png"/>
-    <hyperlink ref="B114" r:id="rId119" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (3).png"/>
-    <hyperlink ref="B115" r:id="rId120" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (4).png"/>
-    <hyperlink ref="B116" r:id="rId121" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (5).png"/>
-    <hyperlink ref="B117" r:id="rId122" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (1).png"/>
-    <hyperlink ref="B118" r:id="rId123" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (2).png"/>
-    <hyperlink ref="B119" r:id="rId124" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (3).png"/>
-    <hyperlink ref="B120" r:id="rId125" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (4).png"/>
-    <hyperlink ref="B121" r:id="rId126" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (5).png"/>
-    <hyperlink ref="B122" r:id="rId127" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (6).png"/>
-    <hyperlink ref="B123" r:id="rId128" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (7).png"/>
-    <hyperlink ref="B124" r:id="rId129" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (8).png"/>
-    <hyperlink ref="B125" r:id="rId130" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (9).png"/>
-    <hyperlink ref="B126" r:id="rId131" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (10).png"/>
-    <hyperlink ref="B127" r:id="rId132" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (11).png"/>
-    <hyperlink ref="B128" r:id="rId133" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (1).png"/>
-    <hyperlink ref="B129" r:id="rId134" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (2).png"/>
-    <hyperlink ref="B130" r:id="rId135" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (3).png"/>
-    <hyperlink ref="B131" r:id="rId136" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (4).png"/>
-    <hyperlink ref="B132" r:id="rId137" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (5).png"/>
-    <hyperlink ref="B133" r:id="rId138" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (6).png"/>
-    <hyperlink ref="B134" r:id="rId139" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (7).png"/>
-    <hyperlink ref="B135" r:id="rId140" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (8).png"/>
-    <hyperlink ref="B136" r:id="rId141" display="171213_내사경_[주요장면 편집본] 1편 유산.MP4"/>
-    <hyperlink ref="B137" r:id="rId142" display="171214_내사경_[주요장면 편집본] 1편 문화유산.MP4"/>
-    <hyperlink ref="B138" r:id="rId143" display="171218_내사경_[2차 가편집본] 1편 유산_OBS.mp4"/>
-    <hyperlink ref="B139" r:id="rId144" display="171218_내사경_[2차 가편집본] 2편 사람_OBS.mp4"/>
-    <hyperlink ref="B140" r:id="rId145" display="171218_내사경_[2차 가편집본] 3편 마을_OBS.mp4"/>
-    <hyperlink ref="B141" r:id="rId146" display="171218_내사경_[2차 가편집본] 4편 명소_OBS.mp4"/>
-    <hyperlink ref="B143" r:id="rId147" display="171219_내사경_[자막편집본] 1편 유산2_OBS.mp4"/>
-    <hyperlink ref="B144" r:id="rId148" display="171219_내사경_[자막편집본] 2편 사람_OBS.mp4"/>
-    <hyperlink ref="B145" r:id="rId149" display="171219_내사경_[자막편집본] 3편 마을_OBS.mp4"/>
-    <hyperlink ref="B146" r:id="rId150" display="171219_내사경_[자막편집본] 4편 명소_OBS.mp4"/>
-    <hyperlink ref="B147" r:id="rId151" display="171227_내사경_[하이라이트(2분30초)] 1편 문화유산의보고경기도_OBS.mov"/>
-    <hyperlink ref="B148" r:id="rId152" display="171227_내사경_[하이라이트(2분30초)] 2편 아름다운사람들경기도민_OBS.mov"/>
-    <hyperlink ref="B149" r:id="rId153" display="171227_내사경_[하이라이트(2분30초)] 3편 머물고싶은경기_OBS.mov"/>
-    <hyperlink ref="B150" r:id="rId154" display="171227_내사경_[하이라이트(2분30초)] 4편 경기에가고싶다_OBS.mov"/>
-    <hyperlink ref="B151" r:id="rId155" display="171228_내사경_[최종 15초] 1편 유산1_OBS.mp4"/>
-    <hyperlink ref="B152" r:id="rId156" display="171228_내사경_[최종 15초] 1편 유산2_OBS.mp4"/>
-    <hyperlink ref="B153" r:id="rId157" display="171228_내사경_[최종 15초] 2편 사람1_OBS.mp4"/>
-    <hyperlink ref="B154" r:id="rId158" display="171228_내사경_[최종 15초] 2편 사람2_OBS.mp4"/>
-    <hyperlink ref="B155" r:id="rId159" display="171228_내사경_[최종 15초] 3편 마을1_OBS.mp4"/>
-    <hyperlink ref="B156" r:id="rId160" display="171228_내사경_[최종 15초] 3편 마을2_OBS.mp4"/>
-    <hyperlink ref="B157" r:id="rId161" display="171228_내사경_[최종 15초] 4편 명소1_OBS.mp4"/>
-    <hyperlink ref="B158" r:id="rId162" display="171228_내사경_[최종 15초] 4편 명소2_OBS.mp4"/>
-    <hyperlink ref="B159" r:id="rId163" display="171228_내사경_[최종방영본 45분] 1편 문화유산의보고경기도_OBS.mp4"/>
-    <hyperlink ref="B160" r:id="rId164" display="171228_내사경_[최종방영본 45분] 2편 아름다운사람들경기도민_OBS.mp4"/>
-    <hyperlink ref="B161" r:id="rId165" display="171228_내사경_[최종방영본 45분] 3편 머물고싶은경기_OBS.mp4"/>
-    <hyperlink ref="B162" r:id="rId166" display="171228_내사경_[최종방영본 45분] 4편 경기에가고싶다_OBS.mp4"/>
-    <hyperlink ref="B168" r:id="rId167" display="180129_내사경_[영상클린본 45분] 1편 문화유산의보고경기도_OBS.mp4"/>
-    <hyperlink ref="B169" r:id="rId168" display="180129_내사경_[영상클린본 45분] 2편 아름다운사람들경기도민_OBS.mp4"/>
-    <hyperlink ref="B170" r:id="rId169" display="180129_내사경_[영상클린본 45분] 3편 머물고싶은경기_OBS.mp4"/>
-    <hyperlink ref="B171" r:id="rId170" display="180129_내사경_[영상클린본 45분] 4편 경기에가고싶다_OBS.mp4"/>
-    <hyperlink ref="B176" r:id="rId171" display="171222_내사경_내가 사랑하는 경기 영상 송출 OBS 경인티비 12월 주간편성표_황록주.png"/>
-    <hyperlink ref="B178" r:id="rId172" display="171226_내사경_내가 사랑하는 경기 영상 송출 장면 촬영_황록주.mp4"/>
-    <hyperlink ref="P19:P56" r:id="rId173" display="02_용역시행"/>
-    <hyperlink ref="P57:P68" r:id="rId174" display="03_용역계약"/>
-    <hyperlink ref="P70:P171" r:id="rId175" display="05_다큐영상제작"/>
-    <hyperlink ref="P172:P179" r:id="rId176" display="06_방영 및 보도"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6" display="171113_내사경 [예고편] 전체 예고 40초 수정_OBS.mp4"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9" display="171113_내사경_[스팟 40초] 수정2_OBS.mp4"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13" display="171207_내사경_[1차 가편집본] 1편 유산_OBS.mp4"/>
+    <hyperlink ref="A15" r:id="rId14" display="171207_내사경_[1차 가편집본] 2편 사람 (완성본)_OBS.mp4"/>
+    <hyperlink ref="A16" r:id="rId15" display="171207_내사경_[1차 가편집본] 3편 마을 (완성본)_OBS.mp4"/>
+    <hyperlink ref="A17" r:id="rId16" display="171207_내사경_[1차 가편집본] 3편 마을 1차_OBS.mp4"/>
+    <hyperlink ref="A18" r:id="rId17" display="171207_내사경_[1차 가편집본] 4편 명소 (완성본)_OBS.mp4"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (1).png"/>
+    <hyperlink ref="A21" r:id="rId20" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (2).png"/>
+    <hyperlink ref="A22" r:id="rId21" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (3).png"/>
+    <hyperlink ref="A23" r:id="rId22" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (4).png"/>
+    <hyperlink ref="A24" r:id="rId23" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (5).png"/>
+    <hyperlink ref="A25" r:id="rId24" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (6).png"/>
+    <hyperlink ref="A26" r:id="rId25" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (7).png"/>
+    <hyperlink ref="A27" r:id="rId26" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (8).png"/>
+    <hyperlink ref="A28" r:id="rId27" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (9).png"/>
+    <hyperlink ref="A29" r:id="rId28" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (10).png"/>
+    <hyperlink ref="A30" r:id="rId29" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (11).png"/>
+    <hyperlink ref="A31" r:id="rId30" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (12).png"/>
+    <hyperlink ref="A32" r:id="rId31" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (1).png"/>
+    <hyperlink ref="A33" r:id="rId32" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (2).png"/>
+    <hyperlink ref="A34" r:id="rId33" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (3).png"/>
+    <hyperlink ref="A35" r:id="rId34" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (4).png"/>
+    <hyperlink ref="A36" r:id="rId35" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (5).png"/>
+    <hyperlink ref="A37" r:id="rId36" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (1).png"/>
+    <hyperlink ref="A38" r:id="rId37" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (2).png"/>
+    <hyperlink ref="A39" r:id="rId38" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (3).png"/>
+    <hyperlink ref="A40" r:id="rId39" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (4).png"/>
+    <hyperlink ref="A41" r:id="rId40" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (5).png"/>
+    <hyperlink ref="A42" r:id="rId41" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (6).png"/>
+    <hyperlink ref="A43" r:id="rId42" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (7).png"/>
+    <hyperlink ref="A44" r:id="rId43" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (8).png"/>
+    <hyperlink ref="A45" r:id="rId44" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (9).png"/>
+    <hyperlink ref="A46" r:id="rId45" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (10).png"/>
+    <hyperlink ref="A47" r:id="rId46" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (11).png"/>
+    <hyperlink ref="A48" r:id="rId47" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (1).png"/>
+    <hyperlink ref="A49" r:id="rId48" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (2).png"/>
+    <hyperlink ref="A50" r:id="rId49" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (3).png"/>
+    <hyperlink ref="A51" r:id="rId50" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (4).png"/>
+    <hyperlink ref="A52" r:id="rId51" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (5).png"/>
+    <hyperlink ref="A53" r:id="rId52" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (6).png"/>
+    <hyperlink ref="A54" r:id="rId53" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (7).png"/>
+    <hyperlink ref="A55" r:id="rId54" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (8).png"/>
+    <hyperlink ref="A56" r:id="rId55" display="171213_내사경_[주요장면 편집본] 1편 유산.MP4"/>
+    <hyperlink ref="A57" r:id="rId56" display="171214_내사경_[주요장면 편집본] 1편 문화유산.MP4"/>
+    <hyperlink ref="A58" r:id="rId57" display="171218_내사경_[2차 가편집본] 1편 유산_OBS.mp4"/>
+    <hyperlink ref="A59" r:id="rId58" display="171218_내사경_[2차 가편집본] 2편 사람_OBS.mp4"/>
+    <hyperlink ref="A60" r:id="rId59" display="171218_내사경_[2차 가편집본] 3편 마을_OBS.mp4"/>
+    <hyperlink ref="A61" r:id="rId60" display="171218_내사경_[2차 가편집본] 4편 명소_OBS.mp4"/>
+    <hyperlink ref="A62" r:id="rId61" display="171219_내사경_[자막편집본] 1편 유산2_OBS.mp4"/>
+    <hyperlink ref="A63" r:id="rId62" display="171219_내사경_[자막편집본] 2편 사람_OBS.mp4"/>
+    <hyperlink ref="A64" r:id="rId63" display="171219_내사경_[자막편집본] 3편 마을_OBS.mp4"/>
+    <hyperlink ref="A65" r:id="rId64" display="171219_내사경_[자막편집본] 4편 명소_OBS.mp4"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68" display="171227_내사경_[하이라이트(2분30초)] 4편 경기에가고싶다_OBS.mov"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75" display="171228_내사경_[최종 15초] 4편 명소1_OBS.mp4"/>
+    <hyperlink ref="A77" r:id="rId76" display="171228_내사경_[최종 15초] 4편 명소2_OBS.mp4"/>
+    <hyperlink ref="A78" r:id="rId77" display="171228_내사경_[최종방영본 45분] 1편 문화유산의보고경기도_OBS.mp4"/>
+    <hyperlink ref="A79" r:id="rId78" display="171228_내사경_[최종방영본 45분] 2편 아름다운사람들경기도민_OBS.mp4"/>
+    <hyperlink ref="A80" r:id="rId79" display="171228_내사경_[최종방영본 45분] 3편 머물고싶은경기_OBS.mp4"/>
+    <hyperlink ref="A81" r:id="rId80" display="171228_내사경_[최종방영본 45분] 4편 경기에가고싶다_OBS.mp4"/>
+    <hyperlink ref="A82" r:id="rId81" display="180129_내사경_[영상클린본 45분] 1편 문화유산의보고경기도_OBS.mp4"/>
+    <hyperlink ref="A83" r:id="rId82" display="180129_내사경_[영상클린본 45분] 2편 아름다운사람들경기도민_OBS.mp4"/>
+    <hyperlink ref="A84" r:id="rId83" display="180129_내사경_[영상클린본 45분] 3편 머물고싶은경기_OBS.mp4"/>
+    <hyperlink ref="A85" r:id="rId84" display="180129_내사경_[영상클린본 45분] 4편 경기에가고싶다_OBS.mp4"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="B2" r:id="rId87" display="170919_내사경_내가 사랑하는 경기 샘플영상_OBS.mp4"/>
+    <hyperlink ref="B3" r:id="rId88" display="171013_내사경_내가 사랑하는 경기 영상 제작 용역 [보안각서]_OBS.jpg"/>
+    <hyperlink ref="B6" r:id="rId89" display="171030_내사경_[리서치] 스마트사업 풍도2부 홈페이지용_윤지원.mp4"/>
+    <hyperlink ref="B7" r:id="rId90" display="171113_내사경 [예고편] 전체 예고 40초 수정_OBS.mp4"/>
+    <hyperlink ref="B11" r:id="rId91" display="171123_내사경_내가 사랑하는 경기 영상 제작 촬영스케줄(11월24일)_황록주.png"/>
+    <hyperlink ref="B12" r:id="rId92" display="171124 내사경_내가 사랑하는 경기 영상 제작 촬영스케줄(도지사인터뷰)_경기도청.jpg"/>
+    <hyperlink ref="B14" r:id="rId93" display="171207_내사경_[1차 가편집본] 1편 유산_OBS.mp4"/>
+    <hyperlink ref="B20" r:id="rId94" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (1).png"/>
+    <hyperlink ref="B57" r:id="rId95" display="171214_내사경_[주요장면 편집본] 1편 문화유산.MP4"/>
+    <hyperlink ref="B58" r:id="rId96" display="171218_내사경_[2차 가편집본] 1편 유산_OBS.mp4"/>
+    <hyperlink ref="B62" r:id="rId97" display="171219_내사경_[자막편집본] 1편 유산2_OBS.mp4"/>
+    <hyperlink ref="B66" r:id="rId98" display="171227_내사경_[하이라이트(2분30초)] 1편 문화유산의보고경기도_OBS.mov"/>
+    <hyperlink ref="B70" r:id="rId99" display="171228_내사경_[최종 15초] 1편 유산1_OBS.mp4"/>
+    <hyperlink ref="B82" r:id="rId100" display="180129_내사경_[영상클린본 45분] 1편 문화유산의보고경기도_OBS.mp4"/>
+    <hyperlink ref="B86" r:id="rId101" display="171222_내사경_내가 사랑하는 경기 영상 송출 OBS 경인티비 12월 주간편성표_황록주.png"/>
+    <hyperlink ref="B87" r:id="rId102" display="171226_내사경_내가 사랑하는 경기 영상 송출 장면 촬영_황록주.mp4"/>
+    <hyperlink ref="P18:P55" r:id="rId103" display="02_용역시행"/>
+    <hyperlink ref="P56:P67" r:id="rId104" display="03_용역계약"/>
+    <hyperlink ref="P69:P170" r:id="rId105" display="05_다큐영상제작"/>
+    <hyperlink ref="B85" r:id="rId106" display="180129_내사경_[영상클린본 45분] 4편 경기에가고싶다_OBS.mp4"/>
+    <hyperlink ref="B84" r:id="rId107" display="180129_내사경_[영상클린본 45분] 3편 머물고싶은경기_OBS.mp4"/>
+    <hyperlink ref="B83" r:id="rId108" display="180129_내사경_[영상클린본 45분] 2편 아름다운사람들경기도민_OBS.mp4"/>
+    <hyperlink ref="B81" r:id="rId109" display="171228_내사경_[최종방영본 45분] 4편 경기에가고싶다_OBS.mp4"/>
+    <hyperlink ref="B80" r:id="rId110" display="171228_내사경_[최종방영본 45분] 3편 머물고싶은경기_OBS.mp4"/>
+    <hyperlink ref="B79" r:id="rId111" display="171228_내사경_[최종방영본 45분] 2편 아름다운사람들경기도민_OBS.mp4"/>
+    <hyperlink ref="B78" r:id="rId112" display="171228_내사경_[최종방영본 45분] 1편 문화유산의보고경기도_OBS.mp4"/>
+    <hyperlink ref="B77" r:id="rId113" display="171228_내사경_[최종 15초] 4편 명소2_OBS.mp4"/>
+    <hyperlink ref="B76" r:id="rId114" display="171228_내사경_[최종 15초] 4편 명소1_OBS.mp4"/>
+    <hyperlink ref="B75" r:id="rId115" display="171228_내사경_[최종 15초] 3편 마을2_OBS.mp4"/>
+    <hyperlink ref="B74" r:id="rId116" display="171228_내사경_[최종 15초] 3편 마을1_OBS.mp4"/>
+    <hyperlink ref="B73" r:id="rId117" display="171228_내사경_[최종 15초] 2편 사람2_OBS.mp4"/>
+    <hyperlink ref="B72" r:id="rId118" display="171228_내사경_[최종 15초] 2편 사람1_OBS.mp4"/>
+    <hyperlink ref="B71" r:id="rId119" display="171228_내사경_[최종 15초] 1편 유산2_OBS.mp4"/>
+    <hyperlink ref="B69" r:id="rId120" display="171227_내사경_[하이라이트(2분30초)] 4편 경기에가고싶다_OBS.mov"/>
+    <hyperlink ref="B68" r:id="rId121" display="171227_내사경_[하이라이트(2분30초)] 3편 머물고싶은경기_OBS.mov"/>
+    <hyperlink ref="B67" r:id="rId122" display="171227_내사경_[하이라이트(2분30초)] 2편 아름다운사람들경기도민_OBS.mov"/>
+    <hyperlink ref="B65" r:id="rId123" display="171219_내사경_[자막편집본] 4편 명소_OBS.mp4"/>
+    <hyperlink ref="B64" r:id="rId124" display="171219_내사경_[자막편집본] 3편 마을_OBS.mp4"/>
+    <hyperlink ref="B63" r:id="rId125" display="171219_내사경_[자막편집본] 2편 사람_OBS.mp4"/>
+    <hyperlink ref="B61" r:id="rId126" display="171218_내사경_[2차 가편집본] 4편 명소_OBS.mp4"/>
+    <hyperlink ref="B60" r:id="rId127" display="171218_내사경_[2차 가편집본] 3편 마을_OBS.mp4"/>
+    <hyperlink ref="B59" r:id="rId128" display="171218_내사경_[2차 가편집본] 2편 사람_OBS.mp4"/>
+    <hyperlink ref="B56" r:id="rId129" display="171213_내사경_[주요장면 편집본] 1편 유산.MP4"/>
+    <hyperlink ref="B55" r:id="rId130" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (8).png"/>
+    <hyperlink ref="B54" r:id="rId131" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (7).png"/>
+    <hyperlink ref="B53" r:id="rId132" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (6).png"/>
+    <hyperlink ref="B52" r:id="rId133" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (5).png"/>
+    <hyperlink ref="B51" r:id="rId134" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (4).png"/>
+    <hyperlink ref="B50" r:id="rId135" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (3).png"/>
+    <hyperlink ref="B49" r:id="rId136" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (2).png"/>
+    <hyperlink ref="B48" r:id="rId137" display="171213_내사경_[영상캡쳐] (43분8초~43분46초) 남경필 경기도지사_이서우 (1).png"/>
+    <hyperlink ref="B47" r:id="rId138" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (11).png"/>
+    <hyperlink ref="B46" r:id="rId139" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (10).png"/>
+    <hyperlink ref="B45" r:id="rId140" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (9).png"/>
+    <hyperlink ref="B44" r:id="rId141" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (8).png"/>
+    <hyperlink ref="B43" r:id="rId142" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (7).png"/>
+    <hyperlink ref="B42" r:id="rId143" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (6).png"/>
+    <hyperlink ref="B41" r:id="rId144" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (5).png"/>
+    <hyperlink ref="B40" r:id="rId145" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (4).png"/>
+    <hyperlink ref="B39" r:id="rId146" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (3).png"/>
+    <hyperlink ref="B38" r:id="rId147" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (2).png"/>
+    <hyperlink ref="B37" r:id="rId148" display="171213_내사경_[영상캡쳐] (42분9초~43분7초) 염종현 경기도청 문체위 위원장_이서우 (1).png"/>
+    <hyperlink ref="B36" r:id="rId149" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (5).png"/>
+    <hyperlink ref="B35" r:id="rId150" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (4).png"/>
+    <hyperlink ref="B34" r:id="rId151" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (3).png"/>
+    <hyperlink ref="B33" r:id="rId152" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (2).png"/>
+    <hyperlink ref="B32" r:id="rId153" display="171213_내사경_[영상캡쳐] (28분53초~29분23초) 남경필 경기도지사_이서우 (1).png"/>
+    <hyperlink ref="B31" r:id="rId154" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (12).png"/>
+    <hyperlink ref="B30" r:id="rId155" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (11).png"/>
+    <hyperlink ref="B29" r:id="rId156" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (10).png"/>
+    <hyperlink ref="B28" r:id="rId157" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (9).png"/>
+    <hyperlink ref="B27" r:id="rId158" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (8).png"/>
+    <hyperlink ref="B26" r:id="rId159" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (7).png"/>
+    <hyperlink ref="B25" r:id="rId160" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (6).png"/>
+    <hyperlink ref="B24" r:id="rId161" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (5).png"/>
+    <hyperlink ref="B23" r:id="rId162" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (4).png"/>
+    <hyperlink ref="B22" r:id="rId163" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (3).png"/>
+    <hyperlink ref="B21" r:id="rId164" display="171213_내사경_[영상캡쳐] (06분58초~7분26초) 염종현 경기도청 문체위 위원장_이서우 (2).png"/>
+    <hyperlink ref="B19" r:id="rId165" display="171207_내사경_[마스터] 1편 유산2_OBS.mp4"/>
+    <hyperlink ref="B18" r:id="rId166" display="171207_내사경_[1차 가편집본] 4편 명소 (완성본)_OBS.mp4"/>
+    <hyperlink ref="B17" r:id="rId167" display="171207_내사경_[1차 가편집본] 3편 마을 1차_OBS.mp4"/>
+    <hyperlink ref="B16" r:id="rId168" display="171207_내사경_[1차 가편집본] 3편 마을 (완성본)_OBS.mp4"/>
+    <hyperlink ref="B15" r:id="rId169" display="171207_내사경_[1차 가편집본] 2편 사람 (완성본)_OBS.mp4"/>
+    <hyperlink ref="B13" r:id="rId170" display="171124_내사경_내가 사랑하는 경기 영상 제작 (도지사님 인터뷰 내용)_황록주.jpg"/>
+    <hyperlink ref="B10" r:id="rId171" display="171113_내사경_[스팟 40초] 수정2_OBS.mp4"/>
+    <hyperlink ref="B9" r:id="rId172" display="171113_내사경_[스팟 25초] 수정_OBS.mp4"/>
+    <hyperlink ref="B8" r:id="rId173" display="171113_내사경_[스팟 25초] mxf파일_OBS.mxf"/>
+    <hyperlink ref="B5" r:id="rId174" display="171013_내사경_내가 사랑하는 경기 영상 제작 용역 [착수계]_OBS.jpg"/>
+    <hyperlink ref="B4" r:id="rId175" display="171013_내사경_내가 사랑하는 경기 영상 제작 용역 [착수계 공문]_OBS.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
